--- a/support/public/filechamcong/chamcong.xlsx
+++ b/support/public/filechamcong/chamcong.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huynhminhnhan/Documents/FPT Poly/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huynhminhnhan/Documents/FPT Poly/duanTN/support/public/filechamcong/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66E59206-ED95-B94D-819B-3F3254AA0D63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64FEB56-1320-104C-A9D9-2A3EA48F03E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{DDDFCD0F-BAB0-6D44-958C-E9192A5FC304}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{DDDFCD0F-BAB0-6D44-958C-E9192A5FC304}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,30 +25,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>ngay</t>
-  </si>
-  <si>
-    <t>gio1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gio2 </t>
-  </si>
-  <si>
-    <t>gio3</t>
-  </si>
-  <si>
-    <t>gio4</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+  <si>
+    <t>Ngày</t>
+  </si>
+  <si>
+    <t>Giờ vào 1</t>
+  </si>
+  <si>
+    <t>Giờ ra 1</t>
+  </si>
+  <si>
+    <t>Giờ vào 2</t>
+  </si>
+  <si>
+    <t>Giờ ra 2</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Huỳnh Minh Nhân</t>
+  </si>
+  <si>
+    <t>Họ và tên</t>
+  </si>
+  <si>
+    <t>22/11/2019</t>
+  </si>
+  <si>
+    <t>Không</t>
+  </si>
+  <si>
+    <t>Huỳnh Minh Đức</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="167" formatCode="h:mm;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -78,8 +97,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,57 +416,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D7EFBC-28C8-9747-BD38-671641AA9EC0}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="10.83203125" style="3"/>
+    <col min="5" max="6" width="10.83203125" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.29305555555555557</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>2</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/support/public/filechamcong/chamcong.xlsx
+++ b/support/public/filechamcong/chamcong.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huynhminhnhan/Documents/FPT Poly/duanTN/support/public/filechamcong/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64FEB56-1320-104C-A9D9-2A3EA48F03E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF8EA41-18EE-F645-9793-0668102EBC97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{DDDFCD0F-BAB0-6D44-958C-E9192A5FC304}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{DDDFCD0F-BAB0-6D44-958C-E9192A5FC304}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Ngày</t>
   </si>
@@ -58,6 +58,18 @@
   </si>
   <si>
     <t>Huỳnh Minh Đức</t>
+  </si>
+  <si>
+    <t>id_user</t>
+  </si>
+  <si>
+    <t>Huỳnh Hoàng Anh</t>
+  </si>
+  <si>
+    <t>Nguyễn trọng nghĩa</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Anh</t>
   </si>
 </sst>
 </file>
@@ -65,13 +77,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="167" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -97,11 +116,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,86 +439,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D7EFBC-28C8-9747-BD38-671641AA9EC0}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="10.83203125" style="3"/>
-    <col min="5" max="6" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="6" max="7" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="3">
         <v>0.29305555555555557</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>0.48958333333333331</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>0.5625</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>0.72916666666666663</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>0.2951388888888889</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>0.55555555555555558</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>0.72916666666666663</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>100</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>9</v>
       </c>
     </row>

--- a/support/public/filechamcong/chamcong.xlsx
+++ b/support/public/filechamcong/chamcong.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huynhminhnhan/Documents/FPT Poly/duanTN/support/public/filechamcong/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF8EA41-18EE-F645-9793-0668102EBC97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A430D60C-38CE-1748-B59E-221F668B7A8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{DDDFCD0F-BAB0-6D44-958C-E9192A5FC304}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>Ngày</t>
   </si>
@@ -70,6 +70,111 @@
   </si>
   <si>
     <t>Nguyễn Đức Anh</t>
+  </si>
+  <si>
+    <t>ĐOÀN THỊ TUYẾT</t>
+  </si>
+  <si>
+    <t>LÊ THỊ ÁI VÂN</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ THANH NHÃ</t>
+  </si>
+  <si>
+    <t>BÙI THỊ LÝ</t>
+  </si>
+  <si>
+    <t>PHẠM THỊ HẠNH</t>
+  </si>
+  <si>
+    <t>VŨ THỊ THU THÙY</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ VÂN</t>
+  </si>
+  <si>
+    <t>TRẦN HẢI PHƯỚC</t>
+  </si>
+  <si>
+    <t>CAO THỊ MỸ DUNG</t>
+  </si>
+  <si>
+    <t>LÊ THỊ THU NGUYỆT</t>
+  </si>
+  <si>
+    <t>LÊ THỊ NGỌC ÁNH</t>
+  </si>
+  <si>
+    <t>LÊ MỸ HẰNG</t>
+  </si>
+  <si>
+    <t>TRẦN THỊ NGỌC DIỆP</t>
+  </si>
+  <si>
+    <t>NGUYỄN ĐẶNG HOÀI LINH</t>
+  </si>
+  <si>
+    <t>TRẦN THỊ YẾN NHI</t>
+  </si>
+  <si>
+    <t>NGUYỄN TRUNG TUYẾN</t>
+  </si>
+  <si>
+    <t>TRẦN ÁI PHÚC NGUYÊN</t>
+  </si>
+  <si>
+    <t>TRẦN THỊ VIÊN</t>
+  </si>
+  <si>
+    <t>HUỲNH THÙY NGA</t>
+  </si>
+  <si>
+    <t>CHÂU BẢO TIÊN</t>
+  </si>
+  <si>
+    <t>PHẠM THỊ NGỌC HÀ</t>
+  </si>
+  <si>
+    <t>ĐỖ NGUYỆN ÚT THANH</t>
+  </si>
+  <si>
+    <t>ĐỖ TRẦN NGUYÊN DUY</t>
+  </si>
+  <si>
+    <t>HỒ NGỌC KHOA</t>
+  </si>
+  <si>
+    <t>LÊ THANH QUANG</t>
+  </si>
+  <si>
+    <t>TRẦN VĂN NHÂN</t>
+  </si>
+  <si>
+    <t>TẠ DUY TRỰC</t>
+  </si>
+  <si>
+    <t>LÊ ANH TUẤN</t>
+  </si>
+  <si>
+    <t>TRÀ NGỌC HẢI</t>
+  </si>
+  <si>
+    <t>TRẦN VĂN KIỀU</t>
+  </si>
+  <si>
+    <t>TRƯƠNG VĂN HẢO</t>
+  </si>
+  <si>
+    <t>NGUYỄN PHƯỚC MINH QUANG</t>
+  </si>
+  <si>
+    <t>LÝ HUỲNH TÂM</t>
+  </si>
+  <si>
+    <t>NGUYỄN VĂN THẮNG</t>
+  </si>
+  <si>
+    <t>LÊ NGỌC SƠN</t>
   </si>
 </sst>
 </file>
@@ -439,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D7EFBC-28C8-9747-BD38-671641AA9EC0}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -533,7 +638,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -559,7 +664,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>12</v>
@@ -585,7 +690,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>14</v>
@@ -607,6 +712,706 @@
       </c>
       <c r="H6" s="4" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.71736111111111101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.32708333333333334</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.71736111111111101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>105</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.33194444444444443</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.71250000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.32916666666666666</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.71319444444444446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>107</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.71388888888888891</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.75555555555555598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>109</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.71666666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>110</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.33194444444444443</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.71527777777777779</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>111</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>112</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>113</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>114</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>115</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>116</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>117</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>118</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.31458333333333333</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.70972222222222225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>119</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.70972222222222225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>120</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>121</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.78194444444444444</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>122</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.71250000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>123</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.32777777777777778</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.70972222222222225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>124</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>126</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.73888888888888893</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>127</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.7284722222222223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>128</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.32847222222222222</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.71319444444444446</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>129</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.71319444444444446</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>130</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.33194444444444443</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.71180555555555547</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>131</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.71180555555555547</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>132</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.31388888888888888</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.71180555555555547</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>133</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.23680555555555557</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.5854166666666667</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>134</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.90625</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.25208333333333333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>135</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.31805555555555554</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.71875</v>
       </c>
     </row>
   </sheetData>

--- a/support/public/filechamcong/chamcong.xlsx
+++ b/support/public/filechamcong/chamcong.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huynhminhnhan/Documents/FPT Poly/duanTN/support/public/filechamcong/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A430D60C-38CE-1748-B59E-221F668B7A8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2025A046-B3EF-A445-ABB1-7CF4322BF6F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{DDDFCD0F-BAB0-6D44-958C-E9192A5FC304}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Ngày</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Họ và tên</t>
-  </si>
-  <si>
-    <t>22/11/2019</t>
   </si>
   <si>
     <t>Không</t>
@@ -221,13 +218,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -546,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D7EFBC-28C8-9747-BD38-671641AA9EC0}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -560,7 +556,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
@@ -591,8 +587,8 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
+      <c r="C2" s="1">
+        <v>43810</v>
       </c>
       <c r="D2" s="3">
         <v>0.29305555555555557</v>
@@ -607,7 +603,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -615,10 +611,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43811</v>
       </c>
       <c r="D3" s="3">
         <v>0.2951388888888889</v>
@@ -633,7 +629,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -641,10 +637,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43812</v>
       </c>
       <c r="D4" s="3">
         <v>0.2951388888888889</v>
@@ -659,7 +655,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -667,25 +663,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43813</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.2951388888888889</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -693,25 +689,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43814</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.2951388888888889</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -719,7 +715,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43815</v>
       </c>
       <c r="D7" s="3">
         <v>0.33680555555555558</v>
@@ -739,7 +738,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43816</v>
       </c>
       <c r="D8" s="3">
         <v>0.3298611111111111</v>
@@ -747,7 +749,7 @@
       <c r="E8" s="2">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>0.55555555555555602</v>
       </c>
       <c r="G8" s="3">
@@ -759,15 +761,18 @@
         <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43817</v>
       </c>
       <c r="D9" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>0.55555555555555602</v>
       </c>
       <c r="G9" s="3">
@@ -779,12 +784,15 @@
         <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43818</v>
       </c>
       <c r="D10" s="3">
         <v>0.32708333333333334</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>0.47916666666666669</v>
       </c>
       <c r="F10" s="3">
@@ -799,7 +807,10 @@
         <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43819</v>
       </c>
       <c r="D11" s="3">
         <v>0.33194444444444443</v>
@@ -807,7 +818,7 @@
       <c r="E11" s="2">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>0.55555555555555602</v>
       </c>
       <c r="G11" s="3">
@@ -819,7 +830,10 @@
         <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43820</v>
       </c>
       <c r="D12" s="3">
         <v>0.32916666666666666</v>
@@ -827,7 +841,7 @@
       <c r="E12" s="2">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>0.55555555555555602</v>
       </c>
       <c r="G12" s="3">
@@ -839,12 +853,15 @@
         <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43821</v>
       </c>
       <c r="D13" s="3">
         <v>0.3298611111111111</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>0.47916666666666669</v>
       </c>
       <c r="F13" s="3">
@@ -859,15 +876,18 @@
         <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43822</v>
       </c>
       <c r="D14" s="3">
         <v>0.53333333333333333</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>0.55555555555555602</v>
       </c>
       <c r="G14" s="3">
@@ -879,7 +899,10 @@
         <v>109</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43823</v>
       </c>
       <c r="D15" s="3">
         <v>0.33124999999999999</v>
@@ -887,7 +910,7 @@
       <c r="E15" s="2">
         <v>0.47916666666666702</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>0.55555555555555602</v>
       </c>
       <c r="G15" s="3">
@@ -899,7 +922,10 @@
         <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43824</v>
       </c>
       <c r="D16" s="3">
         <v>0.33194444444444443</v>
@@ -919,15 +945,18 @@
         <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43825</v>
       </c>
       <c r="D17" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E17" s="7">
-        <v>0.47916666666666702</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="E17" s="6">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F17" s="5">
         <v>0.55555555555555602</v>
       </c>
       <c r="G17" s="3">
@@ -939,15 +968,18 @@
         <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43826</v>
       </c>
       <c r="D18" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E18" s="7">
-        <v>0.47916666666666702</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="E18" s="6">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F18" s="5">
         <v>0.55555555555555602</v>
       </c>
       <c r="G18" s="3">
@@ -959,7 +991,10 @@
         <v>113</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43827</v>
       </c>
       <c r="D19" s="3">
         <v>0.33333333333333331</v>
@@ -979,7 +1014,10 @@
         <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43828</v>
       </c>
       <c r="D20" s="3">
         <v>0.33333333333333331</v>
@@ -987,7 +1025,7 @@
       <c r="E20" s="2">
         <v>0.47916666666666702</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>0.55555555555555602</v>
       </c>
       <c r="G20" s="3">
@@ -999,15 +1037,18 @@
         <v>115</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43829</v>
       </c>
       <c r="D21" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E21" s="7">
-        <v>0.47916666666666702</v>
-      </c>
-      <c r="F21" s="6">
+      <c r="E21" s="6">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F21" s="5">
         <v>0.55555555555555602</v>
       </c>
       <c r="G21" s="3">
@@ -1019,12 +1060,15 @@
         <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43830</v>
       </c>
       <c r="D22" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <v>0.47916666666666702</v>
       </c>
       <c r="F22" s="3">
@@ -1039,7 +1083,10 @@
         <v>117</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43831</v>
       </c>
       <c r="D23" s="3">
         <v>0.33333333333333331</v>
@@ -1047,7 +1094,7 @@
       <c r="E23" s="2">
         <v>0.47916666666666702</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>0.55555555555555602</v>
       </c>
       <c r="G23" s="3">
@@ -1059,7 +1106,10 @@
         <v>118</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43832</v>
       </c>
       <c r="D24" s="3">
         <v>0.31458333333333333</v>
@@ -1067,7 +1117,7 @@
       <c r="E24" s="2">
         <v>0.47916666666666702</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>0.55555555555555602</v>
       </c>
       <c r="G24" s="3">
@@ -1079,12 +1129,15 @@
         <v>119</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43833</v>
       </c>
       <c r="D25" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <v>0.47916666666666702</v>
       </c>
       <c r="F25" s="3">
@@ -1099,15 +1152,18 @@
         <v>120</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43834</v>
       </c>
       <c r="D26" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E26" s="7">
-        <v>0.47916666666666702</v>
-      </c>
-      <c r="F26" s="6">
+      <c r="E26" s="6">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F26" s="5">
         <v>0.55555555555555602</v>
       </c>
       <c r="G26" s="3">
@@ -1119,7 +1175,10 @@
         <v>121</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43835</v>
       </c>
       <c r="D27" s="3">
         <v>0.33333333333333331</v>
@@ -1127,7 +1186,7 @@
       <c r="E27" s="2">
         <v>0.47916666666666702</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <v>0.55555555555555602</v>
       </c>
       <c r="G27" s="3">
@@ -1139,7 +1198,10 @@
         <v>122</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43836</v>
       </c>
       <c r="D28" s="3">
         <v>0.32291666666666669</v>
@@ -1159,15 +1221,18 @@
         <v>123</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43837</v>
       </c>
       <c r="D29" s="3">
         <v>0.32777777777777778</v>
       </c>
-      <c r="E29" s="7">
-        <v>0.47916666666666702</v>
-      </c>
-      <c r="F29" s="6">
+      <c r="E29" s="6">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F29" s="5">
         <v>0.55555555555555602</v>
       </c>
       <c r="G29" s="3">
@@ -1179,15 +1244,18 @@
         <v>124</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43838</v>
       </c>
       <c r="D30" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E30" s="7">
-        <v>0.47916666666666702</v>
-      </c>
-      <c r="F30" s="6">
+      <c r="E30" s="6">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F30" s="5">
         <v>0.55555555555555602</v>
       </c>
       <c r="G30" s="3">
@@ -1199,7 +1267,10 @@
         <v>125</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43839</v>
       </c>
       <c r="D31" s="3">
         <v>0.33333333333333331</v>
@@ -1219,7 +1290,10 @@
         <v>126</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43840</v>
       </c>
       <c r="D32" s="3">
         <v>0.3125</v>
@@ -1227,7 +1301,7 @@
       <c r="E32" s="2">
         <v>0.47916666666666702</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="5">
         <v>0.55555555555555602</v>
       </c>
       <c r="G32" s="3">
@@ -1239,15 +1313,18 @@
         <v>127</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43841</v>
       </c>
       <c r="D33" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E33" s="7">
-        <v>0.47916666666666702</v>
-      </c>
-      <c r="F33" s="6">
+      <c r="E33" s="6">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F33" s="5">
         <v>0.55555555555555602</v>
       </c>
       <c r="G33" s="3">
@@ -1259,12 +1336,15 @@
         <v>128</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43842</v>
       </c>
       <c r="D34" s="3">
         <v>0.32847222222222222</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="6">
         <v>0.47916666666666702</v>
       </c>
       <c r="F34" s="3">
@@ -1279,7 +1359,10 @@
         <v>129</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43843</v>
       </c>
       <c r="D35" s="3">
         <v>0.32291666666666669</v>
@@ -1287,7 +1370,7 @@
       <c r="E35" s="2">
         <v>0.47916666666666702</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="5">
         <v>0.55555555555555602</v>
       </c>
       <c r="G35" s="3">
@@ -1299,7 +1382,10 @@
         <v>130</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43844</v>
       </c>
       <c r="D36" s="3">
         <v>0.33194444444444443</v>
@@ -1307,7 +1393,7 @@
       <c r="E36" s="2">
         <v>0.47916666666666702</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <v>0.55555555555555602</v>
       </c>
       <c r="G36" s="3">
@@ -1319,12 +1405,15 @@
         <v>131</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43845</v>
       </c>
       <c r="D37" s="3">
         <v>0.33124999999999999</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="6">
         <v>0.47916666666666702</v>
       </c>
       <c r="F37" s="3">
@@ -1339,15 +1428,18 @@
         <v>132</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43846</v>
       </c>
       <c r="D38" s="3">
         <v>0.31388888888888888</v>
       </c>
-      <c r="E38" s="7">
-        <v>0.47916666666666702</v>
-      </c>
-      <c r="F38" s="6">
+      <c r="E38" s="6">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F38" s="5">
         <v>0.55555555555555602</v>
       </c>
       <c r="G38" s="3">
@@ -1359,7 +1451,10 @@
         <v>133</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43847</v>
       </c>
       <c r="D39" s="3">
         <v>0.23680555555555557</v>
@@ -1367,7 +1462,7 @@
       <c r="E39" s="2">
         <v>0.47916666666666702</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="5">
         <v>0.55555555555555602</v>
       </c>
       <c r="G39" s="3">
@@ -1379,7 +1474,10 @@
         <v>134</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43848</v>
       </c>
       <c r="D40" s="3">
         <v>0.90625</v>
@@ -1399,15 +1497,18 @@
         <v>135</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43849</v>
       </c>
       <c r="D41" s="3">
         <v>0.31805555555555554</v>
       </c>
-      <c r="E41" s="7">
-        <v>0.47916666666666702</v>
-      </c>
-      <c r="F41" s="6">
+      <c r="E41" s="6">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="F41" s="5">
         <v>0.55555555555555602</v>
       </c>
       <c r="G41" s="3">
